--- a/TestData/LoginDataWithExp.xlsx
+++ b/TestData/LoginDataWithExp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17520" windowHeight="9935"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,44 +83,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,17 +150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,14 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +233,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,169 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,11 +427,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +483,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -510,17 +505,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,148 +529,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/TestData/LoginDataWithExp.xlsx
+++ b/TestData/LoginDataWithExp.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="22368" windowHeight="9215" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData1" sheetId="2" r:id="rId2"/>
+    <sheet name="AddCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>userName</t>
   </si>
@@ -47,17 +49,60 @@
   </si>
   <si>
     <t>dgrdsg</t>
+  </si>
+  <si>
+    <t>Test passed</t>
+  </si>
+  <si>
+    <t>Test failed</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Pvr@123</t>
+  </si>
+  <si>
+    <t>Vidyuth</t>
+  </si>
+  <si>
+    <t>Ridyuth</t>
+  </si>
+  <si>
+    <t>05/06/1995</t>
+  </si>
+  <si>
+    <t>Credo</t>
+  </si>
+  <si>
+    <t>This is learning purpose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,6 +110,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,16 +127,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,7 +158,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,21 +166,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,36 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,6 +219,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -197,22 +250,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,37 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,109 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,21 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,6 +483,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,21 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -524,168 +554,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,33 +1063,33 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="47.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.8888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.8888888888889" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.8888888888889" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1043,7 +1097,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1054,10 +1108,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
@@ -1065,7 +1119,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -1083,4 +1137,153 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="47.8888888888889" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.8888888888889" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="sxgdf@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId2" display="adnkghfd@you.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="21.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="22.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Pvr@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>